--- a/MetaData_template.xlsx
+++ b/MetaData_template.xlsx
@@ -7,23 +7,24 @@
   </bookViews>
   <sheets>
     <sheet name="AttuneYG" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="FACSVerseYG" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Attune8pk" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FACSVerse8pk" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="AttuneTC" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="FACSVerseTC" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="AttuneRV" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="FACSVerseRV" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="AttuneTWP" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="FACSVerseTWP" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="AttuneTWE" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="FACSVerseTWE" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="AttuneYGBV" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FACSVerseYG" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Attune8pk" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FACSVerse8pk" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="AttuneTC" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="FACSVerseTC" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="AttuneRV" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="FACSVerseRV" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="AttuneTWP" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="FACSVerseTWP" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="AttuneTWE" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="FACSVerseTWE" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
   <si>
     <t xml:space="preserve">Filename</t>
   </si>
@@ -149,6 +150,126 @@
   </si>
   <si>
     <t xml:space="preserve">FluospheresBeadsRobot_Experiment_Group_H5.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_A1.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_A2.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_A3.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_A4.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_A5.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_B1.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_B2.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_B3.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_B4.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_B5.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_C1.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_C2.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_C3.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_C4.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_C5.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_D1.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_D2.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_D3.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_D4.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_D5.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_E1.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_E2.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_E3.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_E4.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_E5.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_F1.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_F2.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_F3.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_F4.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_F5.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_G1.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_G2.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_G3.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_G4.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_G5.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_H1.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_H2.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_H3.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_H4.fcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune_BVxx_YG1µm_Experiment_Group_H5.fcs</t>
   </si>
   <si>
     <t xml:space="preserve">YGbeads_001_20190913_200825.fcs</t>
@@ -1921,338 +2042,362 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B2" t="n">
-        <v>3825</v>
+        <v>25635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B3" t="n">
-        <v>1869</v>
+        <v>51702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B4" t="n">
-        <v>27042</v>
+        <v>45859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B5" t="n">
-        <v>12566</v>
+        <v>64849</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B6" t="n">
-        <v>7448</v>
+        <v>57568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B7" t="n">
-        <v>3775</v>
+        <v>48866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B8" t="n">
-        <v>2151</v>
+        <v>40499</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B9" t="n">
-        <v>27830</v>
+        <v>66805</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B10" t="n">
-        <v>15305</v>
+        <v>55660</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B11" t="n">
-        <v>6610</v>
+        <v>43049</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B12" t="n">
-        <v>3423</v>
+        <v>42219</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B13" t="n">
-        <v>2104</v>
+        <v>36270</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B14" t="n">
-        <v>30697</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B15" t="n">
-        <v>16215</v>
+        <v>48038</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B16" t="n">
-        <v>7497</v>
+        <v>46168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B17" t="n">
-        <v>4521</v>
+        <v>48146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B18" t="n">
-        <v>2004</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B19" t="n">
-        <v>29895</v>
+        <v>47842</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B20" t="n">
-        <v>14215</v>
+        <v>48705</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B21" t="n">
-        <v>8950</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B22" t="n">
-        <v>3586</v>
+        <v>44427</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B23" t="n">
-        <v>2269</v>
+        <v>41244</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B24" t="n">
-        <v>27142</v>
+        <v>36711</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B25" t="n">
-        <v>17546</v>
+        <v>30805</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B26" t="n">
-        <v>8631</v>
+        <v>27742</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B27" t="n">
-        <v>4618</v>
+        <v>50916</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B28" t="n">
-        <v>2332</v>
+        <v>43201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B29" t="n">
-        <v>21539</v>
+        <v>39507</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B30" t="n">
-        <v>13405</v>
+        <v>52443</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B31" t="n">
-        <v>6839</v>
+        <v>46644</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B32" t="n">
-        <v>3476</v>
+        <v>46313</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B33" t="n">
-        <v>1826</v>
+        <v>41560</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B34" t="n">
-        <v>25134</v>
+        <v>44438</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B35" t="n">
-        <v>13556</v>
+        <v>36627</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B36" t="n">
-        <v>6613</v>
+        <v>49022</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B37" t="n">
-        <v>3429</v>
+        <v>46889</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B38" t="n">
-        <v>1868</v>
+        <v>53340</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B39" t="n">
-        <v>24463</v>
+        <v>47357</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B40" t="n">
-        <v>13376</v>
+        <v>40867</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B41" t="n">
-        <v>6855</v>
+        <v>38890</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B42" t="n">
-        <v>3538</v>
+        <v>26802</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B43" t="n">
-        <v>1795</v>
+        <v>16524</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>314</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13919</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>315</v>
+      </c>
+      <c r="B45" t="n">
+        <v>16570</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>316</v>
+      </c>
+      <c r="B46" t="n">
+        <v>57168</v>
       </c>
     </row>
   </sheetData>
@@ -2279,362 +2424,338 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B2" t="n">
-        <v>66840</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B3" t="n">
-        <v>55808</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" t="n">
-        <v>58618</v>
+        <v>27042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B5" t="n">
-        <v>63668</v>
+        <v>12566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B6" t="n">
-        <v>65580</v>
+        <v>7448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B7" t="n">
-        <v>61145</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B8" t="n">
-        <v>60087</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B9" t="n">
-        <v>60142</v>
+        <v>27830</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B10" t="n">
-        <v>65360</v>
+        <v>15305</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B11" t="n">
-        <v>32393</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B12" t="n">
-        <v>28047</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B13" t="n">
-        <v>28798</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B14" t="n">
-        <v>27012</v>
+        <v>30697</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B15" t="n">
-        <v>28084</v>
+        <v>16215</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B16" t="n">
-        <v>27959</v>
+        <v>7497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B17" t="n">
-        <v>29272</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B18" t="n">
-        <v>23243</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B19" t="n">
-        <v>39544</v>
+        <v>29895</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B20" t="n">
-        <v>29125</v>
+        <v>14215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B21" t="n">
-        <v>20144</v>
+        <v>8950</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B22" t="n">
-        <v>29133</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B23" t="n">
-        <v>33732</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B24" t="n">
-        <v>26228</v>
+        <v>27142</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B25" t="n">
-        <v>24099</v>
+        <v>17546</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B26" t="n">
-        <v>18898</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B27" t="n">
-        <v>32257</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B28" t="n">
-        <v>40388</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B29" t="n">
-        <v>25697</v>
+        <v>21539</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B30" t="n">
-        <v>17922</v>
+        <v>13405</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B31" t="n">
-        <v>40965</v>
+        <v>6839</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B32" t="n">
-        <v>14379</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B33" t="n">
-        <v>20056</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B34" t="n">
-        <v>15909</v>
+        <v>25134</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B35" t="n">
-        <v>16009</v>
+        <v>13556</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B36" t="n">
-        <v>15872</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B37" t="n">
-        <v>77167</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B38" t="n">
-        <v>10189</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B39" t="n">
-        <v>7532</v>
+        <v>24463</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B40" t="n">
-        <v>7959</v>
+        <v>13376</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B41" t="n">
-        <v>9299</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B42" t="n">
-        <v>11466</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B43" t="n">
-        <v>23349</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>361</v>
-      </c>
-      <c r="B44" t="n">
-        <v>21607</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>362</v>
-      </c>
-      <c r="B45" t="n">
-        <v>26334</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>363</v>
-      </c>
-      <c r="B46" t="n">
-        <v>46872</v>
+        <v>1795</v>
       </c>
     </row>
   </sheetData>
@@ -2661,7 +2782,389 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" t="n">
+        <v>66840</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" t="n">
+        <v>55808</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" t="n">
+        <v>58618</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" t="n">
+        <v>63668</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" t="n">
+        <v>65580</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>364</v>
+      </c>
+      <c r="B7" t="n">
+        <v>61145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" t="n">
+        <v>60087</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60142</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" t="n">
+        <v>65360</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32393</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" t="n">
+        <v>28047</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28798</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" t="n">
+        <v>27012</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" t="n">
+        <v>28084</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" t="n">
+        <v>27959</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" t="n">
+        <v>29272</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" t="n">
+        <v>23243</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" t="n">
+        <v>39544</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20" t="n">
+        <v>29125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20144</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" t="n">
+        <v>29133</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23" t="n">
+        <v>33732</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>381</v>
+      </c>
+      <c r="B24" t="n">
+        <v>26228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24099</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>383</v>
+      </c>
+      <c r="B26" t="n">
+        <v>18898</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>384</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32257</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>385</v>
+      </c>
+      <c r="B28" t="n">
+        <v>40388</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" t="n">
+        <v>25697</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B30" t="n">
+        <v>17922</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>388</v>
+      </c>
+      <c r="B31" t="n">
+        <v>40965</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32" t="n">
+        <v>14379</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20056</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>391</v>
+      </c>
+      <c r="B34" t="n">
+        <v>15909</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>392</v>
+      </c>
+      <c r="B35" t="n">
+        <v>16009</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>393</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15872</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>394</v>
+      </c>
+      <c r="B37" t="n">
+        <v>77167</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>395</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10189</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>396</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7532</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>397</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7959</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>398</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>399</v>
+      </c>
+      <c r="B42" t="n">
+        <v>11466</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>400</v>
+      </c>
+      <c r="B43" t="n">
+        <v>23349</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>401</v>
+      </c>
+      <c r="B44" t="n">
+        <v>21607</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>402</v>
+      </c>
+      <c r="B45" t="n">
+        <v>26334</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B46" t="n">
+        <v>46872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>404</v>
       </c>
       <c r="B2" t="n">
         <v>19360</v>
@@ -2669,7 +3172,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="B3" t="n">
         <v>11066</v>
@@ -2677,7 +3180,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="B4" t="n">
         <v>6385</v>
@@ -2685,7 +3188,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="B5" t="n">
         <v>5046</v>
@@ -2693,7 +3196,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B6" t="n">
         <v>3383</v>
@@ -2701,7 +3204,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="B7" t="n">
         <v>19030</v>
@@ -2709,7 +3212,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="B8" t="n">
         <v>11277</v>
@@ -2717,7 +3220,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="B9" t="n">
         <v>6662</v>
@@ -2725,7 +3228,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="B10" t="n">
         <v>4957</v>
@@ -2733,7 +3236,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="B11" t="n">
         <v>4656</v>
@@ -2741,7 +3244,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="B12" t="n">
         <v>18815</v>
@@ -2749,7 +3252,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="B13" t="n">
         <v>10714</v>
@@ -2757,7 +3260,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="B14" t="n">
         <v>6982</v>
@@ -2765,7 +3268,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="B15" t="n">
         <v>5076</v>
@@ -2773,7 +3276,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="B16" t="n">
         <v>25028</v>
@@ -2781,7 +3284,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="B17" t="n">
         <v>14551</v>
@@ -2789,7 +3292,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="B18" t="n">
         <v>8940</v>
@@ -2797,7 +3300,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="B19" t="n">
         <v>6072</v>
@@ -2805,7 +3308,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="B20" t="n">
         <v>25122</v>
@@ -2813,7 +3316,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="B21" t="n">
         <v>14501</v>
@@ -2821,7 +3324,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="B22" t="n">
         <v>8896</v>
@@ -2829,7 +3332,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="B23" t="n">
         <v>5981</v>
@@ -2837,7 +3340,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="B24" t="n">
         <v>5996</v>
@@ -2845,7 +3348,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="B25" t="n">
         <v>25222</v>
@@ -2853,7 +3356,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="B26" t="n">
         <v>13864</v>
@@ -2861,7 +3364,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="B27" t="n">
         <v>9116</v>
@@ -2869,7 +3372,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="B28" t="n">
         <v>6626</v>
@@ -2877,7 +3380,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="B29" t="n">
         <v>5742</v>
@@ -2885,7 +3388,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="B30" t="n">
         <v>23064</v>
@@ -2893,7 +3396,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="B31" t="n">
         <v>13088</v>
@@ -2901,7 +3404,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="B32" t="n">
         <v>5527</v>
@@ -2909,7 +3412,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="B33" t="n">
         <v>23268</v>
@@ -2917,7 +3420,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="B34" t="n">
         <v>13151</v>
@@ -2925,7 +3428,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="B35" t="n">
         <v>8439</v>
@@ -2933,7 +3436,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="B36" t="n">
         <v>5914</v>
@@ -2941,7 +3444,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="B37" t="n">
         <v>5269</v>
@@ -2949,7 +3452,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="B38" t="n">
         <v>23219</v>
@@ -2957,7 +3460,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="B39" t="n">
         <v>13106</v>
@@ -2965,7 +3468,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="B40" t="n">
         <v>8724</v>
@@ -2973,7 +3476,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="B41" t="n">
         <v>6529</v>
@@ -2981,7 +3484,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="B42" t="n">
         <v>5754</v>
@@ -3014,7 +3517,7 @@
         <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>100000</v>
+        <v>54280</v>
       </c>
     </row>
     <row r="3">
@@ -3022,7 +3525,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="n">
-        <v>100000</v>
+        <v>12115</v>
       </c>
     </row>
     <row r="4">
@@ -3030,7 +3533,7 @@
         <v>44</v>
       </c>
       <c r="B4" t="n">
-        <v>100000</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="5">
@@ -3038,7 +3541,7 @@
         <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>100000</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="6">
@@ -3046,7 +3549,7 @@
         <v>46</v>
       </c>
       <c r="B6" t="n">
-        <v>100000</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7">
@@ -3054,7 +3557,7 @@
         <v>47</v>
       </c>
       <c r="B7" t="n">
-        <v>100000</v>
+        <v>54400</v>
       </c>
     </row>
     <row r="8">
@@ -3062,7 +3565,7 @@
         <v>48</v>
       </c>
       <c r="B8" t="n">
-        <v>100000</v>
+        <v>14642</v>
       </c>
     </row>
     <row r="9">
@@ -3070,7 +3573,7 @@
         <v>49</v>
       </c>
       <c r="B9" t="n">
-        <v>100000</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="10">
@@ -3078,7 +3581,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="n">
-        <v>46492</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="11">
@@ -3086,7 +3589,7 @@
         <v>51</v>
       </c>
       <c r="B11" t="n">
-        <v>55122</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12">
@@ -3094,7 +3597,7 @@
         <v>52</v>
       </c>
       <c r="B12" t="n">
-        <v>58745</v>
+        <v>51742</v>
       </c>
     </row>
     <row r="13">
@@ -3102,7 +3605,7 @@
         <v>53</v>
       </c>
       <c r="B13" t="n">
-        <v>29742</v>
+        <v>12583</v>
       </c>
     </row>
     <row r="14">
@@ -3110,7 +3613,7 @@
         <v>54</v>
       </c>
       <c r="B14" t="n">
-        <v>49542</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="15">
@@ -3118,7 +3621,7 @@
         <v>55</v>
       </c>
       <c r="B15" t="n">
-        <v>36053</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="16">
@@ -3126,7 +3629,7 @@
         <v>56</v>
       </c>
       <c r="B16" t="n">
-        <v>44317</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17">
@@ -3134,7 +3637,7 @@
         <v>57</v>
       </c>
       <c r="B17" t="n">
-        <v>32234</v>
+        <v>59922</v>
       </c>
     </row>
     <row r="18">
@@ -3142,7 +3645,7 @@
         <v>58</v>
       </c>
       <c r="B18" t="n">
-        <v>12015</v>
+        <v>13235</v>
       </c>
     </row>
     <row r="19">
@@ -3150,7 +3653,7 @@
         <v>59</v>
       </c>
       <c r="B19" t="n">
-        <v>8064</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="20">
@@ -3158,7 +3661,7 @@
         <v>60</v>
       </c>
       <c r="B20" t="n">
-        <v>17510</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="21">
@@ -3166,7 +3669,7 @@
         <v>61</v>
       </c>
       <c r="B21" t="n">
-        <v>4416</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
@@ -3174,7 +3677,7 @@
         <v>62</v>
       </c>
       <c r="B22" t="n">
-        <v>13115</v>
+        <v>63165</v>
       </c>
     </row>
     <row r="23">
@@ -3182,7 +3685,7 @@
         <v>63</v>
       </c>
       <c r="B23" t="n">
-        <v>7079</v>
+        <v>9729</v>
       </c>
     </row>
     <row r="24">
@@ -3190,7 +3693,7 @@
         <v>64</v>
       </c>
       <c r="B24" t="n">
-        <v>10283</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="25">
@@ -3198,7 +3701,7 @@
         <v>65</v>
       </c>
       <c r="B25" t="n">
-        <v>3243</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="26">
@@ -3206,7 +3709,7 @@
         <v>66</v>
       </c>
       <c r="B26" t="n">
-        <v>3219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
@@ -3214,7 +3717,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="n">
-        <v>2142</v>
+        <v>59942</v>
       </c>
     </row>
     <row r="28">
@@ -3222,7 +3725,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="n">
-        <v>5884</v>
+        <v>11737</v>
       </c>
     </row>
     <row r="29">
@@ -3230,7 +3733,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="n">
-        <v>999</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="30">
@@ -3238,7 +3741,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="n">
-        <v>6321</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="31">
@@ -3246,7 +3749,7 @@
         <v>71</v>
       </c>
       <c r="B31" t="n">
-        <v>2021</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32">
@@ -3254,7 +3757,7 @@
         <v>72</v>
       </c>
       <c r="B32" t="n">
-        <v>5148</v>
+        <v>54985</v>
       </c>
     </row>
     <row r="33">
@@ -3262,7 +3765,71 @@
         <v>73</v>
       </c>
       <c r="B33" t="n">
-        <v>806</v>
+        <v>10358</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="n">
+        <v>59316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10406</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="n">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3289,330 +3856,258 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" t="n">
-        <v>26337</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B3" t="n">
-        <v>6040</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B4" t="n">
-        <v>2693</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B5" t="n">
-        <v>1628</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B6" t="n">
-        <v>1009</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B7" t="n">
-        <v>24591</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B8" t="n">
-        <v>4746</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B9" t="n">
-        <v>2493</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B10" t="n">
-        <v>1592</v>
+        <v>46492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B11" t="n">
-        <v>822</v>
+        <v>55122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B12" t="n">
-        <v>25881</v>
+        <v>58745</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B13" t="n">
-        <v>5001</v>
+        <v>29742</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B14" t="n">
-        <v>2515</v>
+        <v>49542</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B15" t="n">
-        <v>2046</v>
+        <v>36053</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B16" t="n">
-        <v>1069</v>
+        <v>44317</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B17" t="n">
-        <v>25420</v>
+        <v>32234</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B18" t="n">
-        <v>5249</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B19" t="n">
-        <v>2272</v>
+        <v>8064</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B20" t="n">
-        <v>953</v>
+        <v>17510</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B21" t="n">
-        <v>668</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B22" t="n">
-        <v>26395</v>
+        <v>13115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B23" t="n">
-        <v>4747</v>
+        <v>7079</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B24" t="n">
-        <v>2126</v>
+        <v>10283</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B25" t="n">
-        <v>1627</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B26" t="n">
-        <v>1105</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B27" t="n">
-        <v>25796</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>4553</v>
+        <v>5884</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B29" t="n">
-        <v>2018</v>
+        <v>999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B30" t="n">
-        <v>1716</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B31" t="n">
-        <v>834</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B32" t="n">
-        <v>26039</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B33" t="n">
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" t="n">
-        <v>28631</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" t="n">
-        <v>4641</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" t="n">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" t="n">
-        <v>36028</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -3639,258 +4134,330 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="n">
-        <v>10620</v>
+        <v>26337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="n">
-        <v>11017</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="n">
-        <v>20279</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" t="n">
-        <v>10508</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" t="n">
-        <v>9183</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="n">
-        <v>10427</v>
+        <v>24591</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="n">
-        <v>9948</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" t="n">
-        <v>10777</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="n">
-        <v>1862</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="n">
-        <v>1700</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="n">
-        <v>7589</v>
+        <v>25881</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="n">
-        <v>1493</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="n">
-        <v>1680</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" t="n">
-        <v>1744</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="n">
-        <v>1856</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" t="n">
-        <v>1422</v>
+        <v>25420</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" t="n">
-        <v>755</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" t="n">
-        <v>707</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" t="n">
-        <v>2926</v>
+        <v>953</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" t="n">
-        <v>691</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" t="n">
-        <v>815</v>
+        <v>26395</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" t="n">
-        <v>720</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" t="n">
-        <v>1004</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" t="n">
-        <v>678</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" t="n">
-        <v>644</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" t="n">
-        <v>491</v>
+        <v>25796</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" t="n">
-        <v>1345</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" t="n">
-        <v>547</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" t="n">
-        <v>676</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" t="n">
-        <v>659</v>
+        <v>834</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" t="n">
-        <v>727</v>
+        <v>26039</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
         <v>146</v>
       </c>
-      <c r="B33" t="n">
-        <v>517</v>
+      <c r="B34" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" t="n">
+        <v>28631</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" t="n">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" t="n">
+        <v>36028</v>
       </c>
     </row>
   </sheetData>
@@ -3917,106 +4484,258 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B2" t="n">
-        <v>2640</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B3" t="n">
-        <v>317</v>
+        <v>11017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B4" t="n">
-        <v>91</v>
+        <v>20279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B5" t="n">
-        <v>54</v>
+        <v>10508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B6" t="n">
-        <v>1382</v>
+        <v>9183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B7" t="n">
-        <v>298</v>
+        <v>10427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B8" t="n">
-        <v>102</v>
+        <v>9948</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B9" t="n">
-        <v>68</v>
+        <v>10777</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B10" t="n">
-        <v>1392</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B11" t="n">
-        <v>312</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B12" t="n">
-        <v>98</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B13" t="n">
-        <v>53</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B14" t="n">
-        <v>766</v>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="n">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" t="n">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" t="n">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" t="n">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" t="n">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" t="n">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" t="n">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="n">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -4043,98 +4762,106 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B2" t="n">
-        <v>2778</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B3" t="n">
-        <v>565</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B4" t="n">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B6" t="n">
-        <v>2885</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B7" t="n">
-        <v>492</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="B8" t="n">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B10" t="n">
-        <v>2809</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B11" t="n">
-        <v>554</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="B12" t="n">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="n">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -4161,242 +4888,98 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="B2" t="n">
-        <v>112499</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B3" t="n">
-        <v>96585</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="B4" t="n">
-        <v>100635</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B5" t="n">
-        <v>170024</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="B6" t="n">
-        <v>170296</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="B7" t="n">
-        <v>179702</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="B8" t="n">
-        <v>57211</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="B9" t="n">
-        <v>54872</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="B10" t="n">
-        <v>48206</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="B11" t="n">
-        <v>67898</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B12" t="n">
-        <v>55136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="B13" t="n">
-        <v>68523</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" t="n">
-        <v>45031</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" t="n">
-        <v>34993</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" t="n">
-        <v>28896</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" t="n">
-        <v>45553</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" t="n">
-        <v>26238</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" t="n">
-        <v>40760</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" t="n">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" t="n">
-        <v>44156</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" t="n">
-        <v>39204</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" t="n">
-        <v>49240</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" t="n">
-        <v>39227</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" t="n">
-        <v>40319</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" t="n">
-        <v>46320</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" t="n">
-        <v>46590</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" t="n">
-        <v>36233</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" t="n">
-        <v>38670</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B30" t="n">
-        <v>28599</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" t="n">
-        <v>22501</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4423,242 +5006,242 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B2" t="n">
-        <v>70000</v>
+        <v>112499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B3" t="n">
-        <v>22179</v>
+        <v>96585</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B4" t="n">
-        <v>1579</v>
+        <v>100635</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B5" t="n">
-        <v>187</v>
+        <v>170024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>170296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B7" t="n">
-        <v>70000</v>
+        <v>179702</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B8" t="n">
-        <v>24238</v>
+        <v>57211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B9" t="n">
-        <v>1823</v>
+        <v>54872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B10" t="n">
-        <v>196</v>
+        <v>48206</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B11" t="n">
-        <v>49</v>
+        <v>67898</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B12" t="n">
-        <v>70000</v>
+        <v>55136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B13" t="n">
-        <v>21190</v>
+        <v>68523</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B14" t="n">
-        <v>2426</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B15" t="n">
-        <v>258</v>
+        <v>34993</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B16" t="n">
-        <v>54</v>
+        <v>28896</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B17" t="n">
-        <v>70000</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B18" t="n">
-        <v>39845</v>
+        <v>26238</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B19" t="n">
-        <v>7083</v>
+        <v>40760</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B20" t="n">
-        <v>1480</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B21" t="n">
-        <v>856</v>
+        <v>44156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B22" t="n">
-        <v>70000</v>
+        <v>39204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B23" t="n">
-        <v>41622</v>
+        <v>49240</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B24" t="n">
-        <v>7268</v>
+        <v>39227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B25" t="n">
-        <v>1562</v>
+        <v>40319</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B26" t="n">
-        <v>1058</v>
+        <v>46320</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B27" t="n">
-        <v>70000</v>
+        <v>46590</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B28" t="n">
-        <v>44297</v>
+        <v>36233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B29" t="n">
-        <v>7825</v>
+        <v>38670</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B30" t="n">
-        <v>1588</v>
+        <v>28599</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B31" t="n">
-        <v>1170</v>
+        <v>22501</v>
       </c>
     </row>
   </sheetData>
@@ -4685,362 +5268,242 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B2" t="n">
-        <v>25635</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B3" t="n">
-        <v>51702</v>
+        <v>22179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B4" t="n">
-        <v>45859</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B5" t="n">
-        <v>64849</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B6" t="n">
-        <v>57568</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B7" t="n">
-        <v>48866</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B8" t="n">
-        <v>40499</v>
+        <v>24238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B9" t="n">
-        <v>66805</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B10" t="n">
-        <v>55660</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B11" t="n">
-        <v>43049</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B12" t="n">
-        <v>42219</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B13" t="n">
-        <v>36270</v>
+        <v>21190</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B14" t="n">
-        <v>43532</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B15" t="n">
-        <v>48038</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B16" t="n">
-        <v>46168</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B17" t="n">
-        <v>48146</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B18" t="n">
-        <v>45391</v>
+        <v>39845</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B19" t="n">
-        <v>47842</v>
+        <v>7083</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B20" t="n">
-        <v>48705</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B21" t="n">
-        <v>45735</v>
+        <v>856</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B22" t="n">
-        <v>44427</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B23" t="n">
-        <v>41244</v>
+        <v>41622</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B24" t="n">
-        <v>36711</v>
+        <v>7268</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B25" t="n">
-        <v>30805</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B26" t="n">
-        <v>27742</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B27" t="n">
-        <v>50916</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B28" t="n">
-        <v>43201</v>
+        <v>44297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B29" t="n">
-        <v>39507</v>
+        <v>7825</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B30" t="n">
-        <v>52443</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B31" t="n">
-        <v>46644</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>262</v>
-      </c>
-      <c r="B32" t="n">
-        <v>46313</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>263</v>
-      </c>
-      <c r="B33" t="n">
-        <v>41560</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>264</v>
-      </c>
-      <c r="B34" t="n">
-        <v>44438</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B35" t="n">
-        <v>36627</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>266</v>
-      </c>
-      <c r="B36" t="n">
-        <v>49022</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>267</v>
-      </c>
-      <c r="B37" t="n">
-        <v>46889</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>268</v>
-      </c>
-      <c r="B38" t="n">
-        <v>53340</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>269</v>
-      </c>
-      <c r="B39" t="n">
-        <v>47357</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>270</v>
-      </c>
-      <c r="B40" t="n">
-        <v>40867</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>271</v>
-      </c>
-      <c r="B41" t="n">
-        <v>38890</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>272</v>
-      </c>
-      <c r="B42" t="n">
-        <v>26802</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>273</v>
-      </c>
-      <c r="B43" t="n">
-        <v>16524</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>274</v>
-      </c>
-      <c r="B44" t="n">
-        <v>13919</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>275</v>
-      </c>
-      <c r="B45" t="n">
-        <v>16570</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>276</v>
-      </c>
-      <c r="B46" t="n">
-        <v>57168</v>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
